--- a/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.561729201393064</v>
+        <v>1.052129676827576</v>
       </c>
       <c r="C2">
-        <v>0.6341432671375173</v>
+        <v>0.1569570134444831</v>
       </c>
       <c r="D2">
-        <v>0.3376011780608366</v>
+        <v>0.3835497823945531</v>
       </c>
       <c r="E2">
-        <v>1.450376150062453</v>
+        <v>1.357593437121125</v>
       </c>
       <c r="F2">
-        <v>6.576615509796511</v>
+        <v>6.666906362912187</v>
       </c>
       <c r="G2">
-        <v>0.0007648350851080618</v>
+        <v>0.0008096947775747251</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7164006641164562</v>
+        <v>1.113290759480577</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.18431899608396</v>
+        <v>0.9019831478354661</v>
       </c>
       <c r="C3">
-        <v>0.5389349034105635</v>
+        <v>0.1330704288444764</v>
       </c>
       <c r="D3">
-        <v>0.2972431300560743</v>
+        <v>0.3443756960829631</v>
       </c>
       <c r="E3">
-        <v>1.230040603239885</v>
+        <v>1.15777369584076</v>
       </c>
       <c r="F3">
-        <v>5.731267656202021</v>
+        <v>5.893774240308005</v>
       </c>
       <c r="G3">
-        <v>0.0007772400570888311</v>
+        <v>0.0008194908149735037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6098668260084139</v>
+        <v>0.9505662419902876</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959956980045945</v>
+        <v>0.8124405767887595</v>
       </c>
       <c r="C4">
-        <v>0.4824944494080796</v>
+        <v>0.1189133609800308</v>
       </c>
       <c r="D4">
-        <v>0.273251248204005</v>
+        <v>0.3207610687498459</v>
       </c>
       <c r="E4">
-        <v>1.099919940438994</v>
+        <v>1.038672359169553</v>
       </c>
       <c r="F4">
-        <v>5.228104479565815</v>
+        <v>5.428691781935385</v>
       </c>
       <c r="G4">
-        <v>0.0007849449375860959</v>
+        <v>0.0008256124929220121</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5465776221442624</v>
+        <v>0.8536503780360363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870076128602392</v>
+        <v>0.7765242131108039</v>
       </c>
       <c r="C5">
-        <v>0.4599113374698334</v>
+        <v>0.1132516047978527</v>
       </c>
       <c r="D5">
-        <v>0.2636381352731405</v>
+        <v>0.3112275577032761</v>
       </c>
       <c r="E5">
-        <v>1.047959628823932</v>
+        <v>0.9908895563896039</v>
       </c>
       <c r="F5">
-        <v>5.02640568933603</v>
+        <v>5.241210436524085</v>
       </c>
       <c r="G5">
-        <v>0.0007881126985207292</v>
+        <v>0.0008281371152418485</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5212308444400691</v>
+        <v>0.8148012923970782</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.855236897347226</v>
+        <v>0.7705924099918207</v>
       </c>
       <c r="C6">
-        <v>0.4561842038415307</v>
+        <v>0.1123173990443718</v>
       </c>
       <c r="D6">
-        <v>0.2620508575321736</v>
+        <v>0.3096493770346314</v>
       </c>
       <c r="E6">
-        <v>1.039389803306236</v>
+        <v>0.9829966224341433</v>
       </c>
       <c r="F6">
-        <v>4.993098371043374</v>
+        <v>5.210192458903663</v>
       </c>
       <c r="G6">
-        <v>0.0007886405457903045</v>
+        <v>0.0008285582230532625</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5170464662676011</v>
+        <v>0.8083864291577072</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.958738917492411</v>
+        <v>0.8119539916251028</v>
       </c>
       <c r="C7">
-        <v>0.4821883080760188</v>
+        <v>0.1188365954646571</v>
       </c>
       <c r="D7">
-        <v>0.2731209814104574</v>
+        <v>0.3206321592299446</v>
       </c>
       <c r="E7">
-        <v>1.099215157176175</v>
+        <v>1.038025084428597</v>
       </c>
       <c r="F7">
-        <v>5.225371554367769</v>
+        <v>5.426155537877065</v>
       </c>
       <c r="G7">
-        <v>0.0007849875388041502</v>
+        <v>0.0008256464154972671</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.546234098002401</v>
+        <v>0.8531239694905821</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.429871006348037</v>
+        <v>0.9997502452806373</v>
       </c>
       <c r="C8">
-        <v>0.6008376407044409</v>
+        <v>0.1486019065619075</v>
       </c>
       <c r="D8">
-        <v>0.3234998812875745</v>
+        <v>0.3699384592675159</v>
       </c>
       <c r="E8">
-        <v>1.373179066004596</v>
+        <v>1.287854009087965</v>
       </c>
       <c r="F8">
-        <v>6.281422597404173</v>
+        <v>6.398093348124803</v>
       </c>
       <c r="G8">
-        <v>0.0007690977667398318</v>
+        <v>0.0008130522552622148</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6791688709651993</v>
+        <v>1.056491605374163</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428801054629218</v>
+        <v>1.393864007421399</v>
       </c>
       <c r="C9">
-        <v>0.8544906817811295</v>
+        <v>0.2121031840053291</v>
       </c>
       <c r="D9">
-        <v>0.4304056562372551</v>
+        <v>0.4711688346560408</v>
       </c>
       <c r="E9">
-        <v>1.964422440663867</v>
+        <v>1.814215188780054</v>
       </c>
       <c r="F9">
-        <v>8.51342429387455</v>
+        <v>8.399874033029931</v>
       </c>
       <c r="G9">
-        <v>0.0007383239734199506</v>
+        <v>0.0007890417000356086</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9615930941535566</v>
+        <v>1.484760083567096</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.237504900792317</v>
+        <v>1.707143653822556</v>
       </c>
       <c r="C10">
-        <v>1.062454476307153</v>
+        <v>0.2637055365538288</v>
       </c>
       <c r="D10">
-        <v>0.5171335342392922</v>
+        <v>0.5500426830336949</v>
       </c>
       <c r="E10">
-        <v>2.455191929856227</v>
+        <v>2.236599690106232</v>
       </c>
       <c r="F10">
-        <v>10.31234712162677</v>
+        <v>9.960768156902532</v>
       </c>
       <c r="G10">
-        <v>0.0007154013786012303</v>
+        <v>0.000771554742283298</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.190949397531497</v>
+        <v>1.826762427917998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.6305455887221</v>
+        <v>1.857037290273411</v>
       </c>
       <c r="C11">
-        <v>1.164497035993321</v>
+        <v>0.288772608632442</v>
       </c>
       <c r="D11">
-        <v>0.559350957321783</v>
+        <v>0.5873779627337683</v>
       </c>
       <c r="E11">
-        <v>2.6981853053869</v>
+        <v>2.44037865472437</v>
       </c>
       <c r="F11">
-        <v>11.18369450461557</v>
+        <v>10.69919661987865</v>
       </c>
       <c r="G11">
-        <v>0.0007047374829407538</v>
+        <v>0.0007635592170686392</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.302684860769773</v>
+        <v>1.990920289217797</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.78401251623211</v>
+        <v>1.915090552098945</v>
       </c>
       <c r="C12">
-        <v>1.204524605925258</v>
+        <v>0.2985486210215811</v>
       </c>
       <c r="D12">
-        <v>0.5758469944312594</v>
+        <v>0.6017740501192463</v>
       </c>
       <c r="E12">
-        <v>2.793924703419734</v>
+        <v>2.519633377061979</v>
       </c>
       <c r="F12">
-        <v>11.52335512343467</v>
+        <v>10.98379932442242</v>
       </c>
       <c r="G12">
-        <v>0.0007006462163092308</v>
+        <v>0.0007605180502391945</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.346363514911303</v>
+        <v>2.054591086360773</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.750735285615804</v>
+        <v>1.902526114299889</v>
       </c>
       <c r="C13">
-        <v>1.195836189723735</v>
+        <v>0.2964295680993132</v>
       </c>
       <c r="D13">
-        <v>0.5722694948052833</v>
+        <v>0.5986612401920297</v>
       </c>
       <c r="E13">
-        <v>2.773122629759172</v>
+        <v>2.502463937847182</v>
       </c>
       <c r="F13">
-        <v>11.44973209138004</v>
+        <v>10.92226757693061</v>
       </c>
       <c r="G13">
-        <v>0.0007015300710868271</v>
+        <v>0.0007611737551851405</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.336889931407967</v>
+        <v>2.040806403204954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.643071712214464</v>
+        <v>1.861785990427222</v>
       </c>
       <c r="C14">
-        <v>1.167760181957988</v>
+        <v>0.289570846997961</v>
       </c>
       <c r="D14">
-        <v>0.5606971339039717</v>
+        <v>0.5885568530745502</v>
       </c>
       <c r="E14">
-        <v>2.705981108212299</v>
+        <v>2.446854420328052</v>
       </c>
       <c r="F14">
-        <v>11.21143013440155</v>
+        <v>10.72250557494283</v>
       </c>
       <c r="G14">
-        <v>0.0007044020856382303</v>
+        <v>0.0007633093367391972</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.306248876540479</v>
+        <v>1.996126533223503</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.577762905206669</v>
+        <v>1.837007349563834</v>
       </c>
       <c r="C15">
-        <v>1.150754394809155</v>
+        <v>0.285408444109521</v>
       </c>
       <c r="D15">
-        <v>0.5536789105610467</v>
+        <v>0.5824028348053787</v>
       </c>
       <c r="E15">
-        <v>2.665371048332901</v>
+        <v>2.413077853375924</v>
       </c>
       <c r="F15">
-        <v>11.0667983439094</v>
+        <v>10.60082314040176</v>
       </c>
       <c r="G15">
-        <v>0.000706153701521586</v>
+        <v>0.0007646154408275723</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.287668869878615</v>
+        <v>1.96896427526346</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.212405182367831</v>
+        <v>1.697514952805676</v>
       </c>
       <c r="C16">
-        <v>1.055960415256948</v>
+        <v>0.2621038066003223</v>
       </c>
       <c r="D16">
-        <v>0.5144390017234741</v>
+        <v>0.5476359794945438</v>
       </c>
       <c r="E16">
-        <v>2.439778312251747</v>
+        <v>2.223549763485096</v>
       </c>
       <c r="F16">
-        <v>10.25663396647644</v>
+        <v>9.913153810420425</v>
       </c>
       <c r="G16">
-        <v>0.0007160920237280117</v>
+        <v>0.0007720758358789388</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.183820065552226</v>
+        <v>1.81622915615236</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.995348840765928</v>
+        <v>1.613981549730539</v>
       </c>
       <c r="C17">
-        <v>0.9999101266909065</v>
+        <v>0.2482505205536683</v>
       </c>
       <c r="D17">
-        <v>0.4911447919511147</v>
+        <v>0.5267122677273619</v>
       </c>
       <c r="E17">
-        <v>2.306986760556057</v>
+        <v>2.110527577048771</v>
       </c>
       <c r="F17">
-        <v>9.774508736886133</v>
+        <v>9.499143656146686</v>
       </c>
       <c r="G17">
-        <v>0.0007221163748948517</v>
+        <v>0.0007766371923451533</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.122197088197368</v>
+        <v>1.724906846344368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.872797193144436</v>
+        <v>1.566613946260873</v>
       </c>
       <c r="C18">
-        <v>0.9683482394984821</v>
+        <v>0.2404285478753252</v>
       </c>
       <c r="D18">
-        <v>0.4779985924415087</v>
+        <v>0.5148110721598869</v>
       </c>
       <c r="E18">
-        <v>2.232400448179362</v>
+        <v>2.046585689952607</v>
       </c>
       <c r="F18">
-        <v>9.502040413583728</v>
+        <v>9.263623812979631</v>
       </c>
       <c r="G18">
-        <v>0.0007255605865867905</v>
+        <v>0.0007792574722335715</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.087427422245938</v>
+        <v>1.673168937342979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.831670796956246</v>
+        <v>1.550686336329306</v>
       </c>
       <c r="C19">
-        <v>0.9577699622755915</v>
+        <v>0.2378037675682236</v>
       </c>
       <c r="D19">
-        <v>0.4735878814882142</v>
+        <v>0.5108031312541357</v>
       </c>
       <c r="E19">
-        <v>2.207431936679797</v>
+        <v>2.025107873437094</v>
       </c>
       <c r="F19">
-        <v>9.410563736445397</v>
+        <v>9.184304099551809</v>
       </c>
       <c r="G19">
-        <v>0.0007267236563865964</v>
+        <v>0.0007801442967552141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.075762936546312</v>
+        <v>1.655779271451053</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.01821105876553</v>
+        <v>1.622802064658089</v>
       </c>
       <c r="C20">
-        <v>1.005804732886105</v>
+        <v>0.2497097493841522</v>
       </c>
       <c r="D20">
-        <v>0.4935977067934232</v>
+        <v>0.5289254841603679</v>
       </c>
       <c r="E20">
-        <v>2.320931663211809</v>
+        <v>2.122445992970981</v>
       </c>
       <c r="F20">
-        <v>9.825317886511186</v>
+        <v>9.542939881502377</v>
       </c>
       <c r="G20">
-        <v>0.0007214773500907601</v>
+        <v>0.0007761520189925917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.128685257051472</v>
+        <v>1.734544867043411</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.674559852353582</v>
+        <v>1.873715223758353</v>
       </c>
       <c r="C21">
-        <v>1.175966151882818</v>
+        <v>0.291577227004197</v>
       </c>
       <c r="D21">
-        <v>0.5640813433842595</v>
+        <v>0.5915173178680959</v>
       </c>
       <c r="E21">
-        <v>2.7255926401332</v>
+        <v>2.463127828339324</v>
       </c>
       <c r="F21">
-        <v>11.28114238357091</v>
+        <v>10.78103746175066</v>
       </c>
       <c r="G21">
-        <v>0.0007035601267961375</v>
+        <v>0.0007626824975631162</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.315208934412965</v>
+        <v>2.009206706377768</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.131227979024231</v>
+        <v>2.045374376465247</v>
       </c>
       <c r="C22">
-        <v>1.295482870595606</v>
+        <v>0.3206280019124108</v>
       </c>
       <c r="D22">
-        <v>0.6131928436602152</v>
+        <v>0.6339586508003094</v>
       </c>
       <c r="E22">
-        <v>3.012413397039978</v>
+        <v>2.698221660296269</v>
       </c>
       <c r="F22">
-        <v>12.29059612756765</v>
+        <v>11.61976010139051</v>
       </c>
       <c r="G22">
-        <v>0.0006915272946219874</v>
+        <v>0.000753796350698414</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.445294074362025</v>
+        <v>2.197673890847028</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.884540416663981</v>
+        <v>1.952965557472169</v>
       </c>
       <c r="C23">
-        <v>1.230802162743288</v>
+        <v>0.3049472921077694</v>
       </c>
       <c r="D23">
-        <v>0.5866561997588633</v>
+        <v>0.6111478389227329</v>
       </c>
       <c r="E23">
-        <v>2.856910501887995</v>
+        <v>2.571445812703288</v>
       </c>
       <c r="F23">
-        <v>11.74566975133911</v>
+        <v>11.16906974423659</v>
       </c>
       <c r="G23">
-        <v>0.0006979869213900177</v>
+        <v>0.0007585495873713658</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.374990823131228</v>
+        <v>2.096159394698674</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.00786815464096</v>
+        <v>1.618812280646722</v>
       </c>
       <c r="C24">
-        <v>1.003137741401872</v>
+        <v>0.2490495922408229</v>
       </c>
       <c r="D24">
-        <v>0.4924879858706674</v>
+        <v>0.5279244934865233</v>
       </c>
       <c r="E24">
-        <v>2.314621761548594</v>
+        <v>2.117054480022119</v>
       </c>
       <c r="F24">
-        <v>9.802332541760251</v>
+        <v>9.52313188609196</v>
       </c>
       <c r="G24">
-        <v>0.0007217663120337621</v>
+        <v>0.0007763713718533793</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.125749927299736</v>
+        <v>1.730185156560879</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.14791097102858</v>
+        <v>1.28373366740388</v>
       </c>
       <c r="C25">
-        <v>0.782834915723555</v>
+        <v>0.1942062099907957</v>
       </c>
       <c r="D25">
-        <v>0.4003232536303329</v>
+        <v>0.4431343010859905</v>
       </c>
       <c r="E25">
-        <v>1.796613406499901</v>
+        <v>1.666677949286878</v>
       </c>
       <c r="F25">
-        <v>7.88684442031257</v>
+        <v>7.845094480675783</v>
       </c>
       <c r="G25">
-        <v>0.0007466572937374875</v>
+        <v>0.0007954885237948279</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8820877268600498</v>
+        <v>1.364871185423112</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052129676827576</v>
+        <v>0.9845971067980201</v>
       </c>
       <c r="C2">
-        <v>0.1569570134444831</v>
+        <v>0.2871187986189057</v>
       </c>
       <c r="D2">
-        <v>0.3835497823945531</v>
+        <v>0.04152751061760895</v>
       </c>
       <c r="E2">
-        <v>1.357593437121125</v>
+        <v>1.367278221857973</v>
       </c>
       <c r="F2">
-        <v>6.666906362912187</v>
+        <v>0.8401929723001444</v>
       </c>
       <c r="G2">
-        <v>0.0008096947775747251</v>
+        <v>0.7623431400457719</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005164940060931045</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5202444297980833</v>
       </c>
       <c r="K2">
-        <v>1.113290759480577</v>
+        <v>0.4952710893771837</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.229746221579944</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9019831478354661</v>
+        <v>0.8561343521048173</v>
       </c>
       <c r="C3">
-        <v>0.1330704288444764</v>
+        <v>0.2493658669940828</v>
       </c>
       <c r="D3">
-        <v>0.3443756960829631</v>
+        <v>0.03972487614743869</v>
       </c>
       <c r="E3">
-        <v>1.15777369584076</v>
+        <v>1.174364359840325</v>
       </c>
       <c r="F3">
-        <v>5.893774240308005</v>
+        <v>0.7797316313128917</v>
       </c>
       <c r="G3">
-        <v>0.0008194908149735037</v>
+        <v>0.7091020757906676</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005239295459222859</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5019265426990103</v>
       </c>
       <c r="K3">
-        <v>0.9505662419902876</v>
+        <v>0.4797206153741911</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.069167253010164</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8124405767887595</v>
+        <v>0.777281790723265</v>
       </c>
       <c r="C4">
-        <v>0.1189133609800308</v>
+        <v>0.2266291091741266</v>
       </c>
       <c r="D4">
-        <v>0.3207610687498459</v>
+        <v>0.03861537577539664</v>
       </c>
       <c r="E4">
-        <v>1.038672359169553</v>
+        <v>1.058043724241955</v>
       </c>
       <c r="F4">
-        <v>5.428691781935385</v>
+        <v>0.7434973850375215</v>
       </c>
       <c r="G4">
-        <v>0.0008256124929220121</v>
+        <v>0.6772314269075252</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0009232924376090246</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4911759358469965</v>
       </c>
       <c r="K4">
-        <v>0.8536503780360363</v>
+        <v>0.4704977337855212</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9710691524688002</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7765242131108039</v>
+        <v>0.744837136698635</v>
       </c>
       <c r="C5">
-        <v>0.1132516047978527</v>
+        <v>0.2179386135833852</v>
       </c>
       <c r="D5">
-        <v>0.3112275577032761</v>
+        <v>0.03821881709226815</v>
       </c>
       <c r="E5">
-        <v>0.9908895563896039</v>
+        <v>1.011086940468786</v>
       </c>
       <c r="F5">
-        <v>5.241210436524085</v>
+        <v>0.7277219172060327</v>
       </c>
       <c r="G5">
-        <v>0.0008281371152418485</v>
+        <v>0.6630848384211845</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001249452128134543</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4862198494439411</v>
       </c>
       <c r="K5">
-        <v>0.8148012923970782</v>
+        <v>0.4658727231766413</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9315493801297805</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7705924099918207</v>
+        <v>0.7390752459813541</v>
       </c>
       <c r="C6">
-        <v>0.1123173990443718</v>
+        <v>0.2170859143805757</v>
       </c>
       <c r="D6">
-        <v>0.3096493770346314</v>
+        <v>0.03822223469578745</v>
       </c>
       <c r="E6">
-        <v>0.9829966224341433</v>
+        <v>1.003303022273286</v>
       </c>
       <c r="F6">
-        <v>5.210192458903663</v>
+        <v>0.7236327817266854</v>
       </c>
       <c r="G6">
-        <v>0.0008285582230532625</v>
+        <v>0.6591047359848119</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001402880976309362</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4845597930326022</v>
       </c>
       <c r="K6">
-        <v>0.8083864291577072</v>
+        <v>0.4639606307644897</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9254273548762626</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8119539916251028</v>
+        <v>0.7758185778995141</v>
       </c>
       <c r="C7">
-        <v>0.1188365954646571</v>
+        <v>0.2281118910183011</v>
       </c>
       <c r="D7">
-        <v>0.3206321592299446</v>
+        <v>0.03880043966327662</v>
       </c>
       <c r="E7">
-        <v>1.038025084428597</v>
+        <v>1.057374186565426</v>
       </c>
       <c r="F7">
-        <v>5.426155537877065</v>
+        <v>0.7392334664399698</v>
       </c>
       <c r="G7">
-        <v>0.0008256464154972671</v>
+        <v>0.6725503977985312</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001165988700208231</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4888035857606639</v>
       </c>
       <c r="K7">
-        <v>0.8531239694905821</v>
+        <v>0.4672959538962402</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9717255313940996</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9997502452806373</v>
+        <v>0.9389121628363171</v>
       </c>
       <c r="C8">
-        <v>0.1486019065619075</v>
+        <v>0.2761385403550207</v>
       </c>
       <c r="D8">
-        <v>0.3699384592675159</v>
+        <v>0.04116467570053928</v>
       </c>
       <c r="E8">
-        <v>1.287854009087965</v>
+        <v>1.300214491913962</v>
       </c>
       <c r="F8">
-        <v>6.398093348124803</v>
+        <v>0.8137745724448848</v>
       </c>
       <c r="G8">
-        <v>0.0008130522552622148</v>
+        <v>0.7378461029061469</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007090386097514667</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.510771923090843</v>
       </c>
       <c r="K8">
-        <v>1.056491605374163</v>
+        <v>0.4856825179664241</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.175844496594578</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.393864007421399</v>
+        <v>1.26142016163908</v>
       </c>
       <c r="C9">
-        <v>0.2121031840053291</v>
+        <v>0.3715917589215678</v>
       </c>
       <c r="D9">
-        <v>0.4711688346560408</v>
+        <v>0.04543147433770045</v>
       </c>
       <c r="E9">
-        <v>1.814215188780054</v>
+        <v>1.79743345434818</v>
       </c>
       <c r="F9">
-        <v>8.399874033029931</v>
+        <v>0.9753380404421108</v>
       </c>
       <c r="G9">
-        <v>0.0007890417000356086</v>
+        <v>0.8815252266427507</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002926718383981175</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5623804111662594</v>
       </c>
       <c r="K9">
-        <v>1.484760083567096</v>
+        <v>0.5303249654040769</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.579121697349137</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.707143653822556</v>
+        <v>1.499288162821983</v>
       </c>
       <c r="C10">
-        <v>0.2637055365538288</v>
+        <v>0.4460767070378608</v>
       </c>
       <c r="D10">
-        <v>0.5500426830336949</v>
+        <v>0.04866375480308704</v>
       </c>
       <c r="E10">
-        <v>2.236599690106232</v>
+        <v>2.181781179730663</v>
       </c>
       <c r="F10">
-        <v>9.960768156902532</v>
+        <v>1.098586139194438</v>
       </c>
       <c r="G10">
-        <v>0.000771554742283298</v>
+        <v>0.991104259607468</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007257605741039619</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6025650035589365</v>
       </c>
       <c r="K10">
-        <v>1.826762427917998</v>
+        <v>0.5639771589803786</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.880988448798774</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.857037290273411</v>
+        <v>1.606265584839747</v>
       </c>
       <c r="C11">
-        <v>0.288772608632442</v>
+        <v>0.4837075526230592</v>
       </c>
       <c r="D11">
-        <v>0.5873779627337683</v>
+        <v>0.05048107444952876</v>
       </c>
       <c r="E11">
-        <v>2.44037865472437</v>
+        <v>2.362275029568892</v>
       </c>
       <c r="F11">
-        <v>10.69919661987865</v>
+        <v>1.149797208293663</v>
       </c>
       <c r="G11">
-        <v>0.0007635592170686392</v>
+        <v>1.035320626385229</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01022816135843119</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6180118551875324</v>
       </c>
       <c r="K11">
-        <v>1.990920289217797</v>
+        <v>0.5748408331963475</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.021838277071708</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.915090552098945</v>
+        <v>1.647821162079282</v>
       </c>
       <c r="C12">
-        <v>0.2985486210215811</v>
+        <v>0.49668185571295</v>
       </c>
       <c r="D12">
-        <v>0.6017740501192463</v>
+        <v>0.05098751320753081</v>
       </c>
       <c r="E12">
-        <v>2.519633377061979</v>
+        <v>2.431666949652126</v>
       </c>
       <c r="F12">
-        <v>10.98379932442242</v>
+        <v>1.173040779402342</v>
       </c>
       <c r="G12">
-        <v>0.0007605180502391945</v>
+        <v>1.056287914978</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01129280484026829</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6260064530941918</v>
       </c>
       <c r="K12">
-        <v>2.054591086360773</v>
+        <v>0.5817866061099934</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.074384276296655</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.902526114299889</v>
+        <v>1.639057574941575</v>
       </c>
       <c r="C13">
-        <v>0.2964295680993132</v>
+        <v>0.4935875399802399</v>
       </c>
       <c r="D13">
-        <v>0.5986612401920297</v>
+        <v>0.05084138105482339</v>
       </c>
       <c r="E13">
-        <v>2.502463937847182</v>
+        <v>2.416688225160911</v>
       </c>
       <c r="F13">
-        <v>10.92226757693061</v>
+        <v>1.168735418548096</v>
       </c>
       <c r="G13">
-        <v>0.0007611737551851405</v>
+        <v>1.052549393121041</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01102217993936794</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6246789752236594</v>
       </c>
       <c r="K13">
-        <v>2.040806403204954</v>
+        <v>0.5808322006432647</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.062842786020212</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.861785990427222</v>
+        <v>1.609763232581031</v>
       </c>
       <c r="C14">
-        <v>0.289570846997961</v>
+        <v>0.4846473700891067</v>
       </c>
       <c r="D14">
-        <v>0.5885568530745502</v>
+        <v>0.05050701525050982</v>
       </c>
       <c r="E14">
-        <v>2.446854420328052</v>
+        <v>2.367968469264142</v>
       </c>
       <c r="F14">
-        <v>10.72250557494283</v>
+        <v>1.152006593769343</v>
       </c>
       <c r="G14">
-        <v>0.0007633093367391972</v>
+        <v>1.037375261987791</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0102976940037367</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6188368690312274</v>
       </c>
       <c r="K14">
-        <v>1.996126533223503</v>
+        <v>0.5756420571206462</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.026065526090406</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.837007349563834</v>
+        <v>1.591458680738839</v>
       </c>
       <c r="C15">
-        <v>0.285408444109521</v>
+        <v>0.4797690275006232</v>
       </c>
       <c r="D15">
-        <v>0.5824028348053787</v>
+        <v>0.05037507439553934</v>
       </c>
       <c r="E15">
-        <v>2.413077853375924</v>
+        <v>2.338235720172094</v>
       </c>
       <c r="F15">
-        <v>10.60082314040176</v>
+        <v>1.140395030571071</v>
       </c>
       <c r="G15">
-        <v>0.0007646154408275723</v>
+        <v>1.026565240811678</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.009944937055786696</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6144891121780489</v>
       </c>
       <c r="K15">
-        <v>1.96896427526346</v>
+        <v>0.5714031303310207</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.003992205754685</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.697514952805676</v>
+        <v>1.489164472930469</v>
       </c>
       <c r="C16">
-        <v>0.2621038066003223</v>
+        <v>0.4484640185236799</v>
       </c>
       <c r="D16">
-        <v>0.5476359794945438</v>
+        <v>0.04915239041075381</v>
       </c>
       <c r="E16">
-        <v>2.223549763485096</v>
+        <v>2.169925113442076</v>
       </c>
       <c r="F16">
-        <v>9.913153810420425</v>
+        <v>1.083435155346336</v>
       </c>
       <c r="G16">
-        <v>0.0007720758358789388</v>
+        <v>0.9751415412002018</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007676730784709207</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5949149706299437</v>
       </c>
       <c r="K16">
-        <v>1.81622915615236</v>
+        <v>0.5542060307749068</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.875337965967759</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.613981549730539</v>
+        <v>1.42658548099476</v>
       </c>
       <c r="C17">
-        <v>0.2482505205536683</v>
+        <v>0.4295125801214681</v>
       </c>
       <c r="D17">
-        <v>0.5267122677273619</v>
+        <v>0.04839932190899532</v>
       </c>
       <c r="E17">
-        <v>2.110527577048771</v>
+        <v>2.06825743200821</v>
       </c>
       <c r="F17">
-        <v>9.499143656146686</v>
+        <v>1.049043025226723</v>
       </c>
       <c r="G17">
-        <v>0.0007766371923451533</v>
+        <v>0.944136844550826</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006476954764701226</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5831844815440803</v>
       </c>
       <c r="K17">
-        <v>1.724906846344368</v>
+        <v>0.5438809350955864</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.796820390630899</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.566613946260873</v>
+        <v>1.391594786515668</v>
       </c>
       <c r="C18">
-        <v>0.2404285478753252</v>
+        <v>0.4172360426337889</v>
       </c>
       <c r="D18">
-        <v>0.5148110721598869</v>
+        <v>0.04778099120395751</v>
       </c>
       <c r="E18">
-        <v>2.046585689952607</v>
+        <v>2.010367493587054</v>
       </c>
       <c r="F18">
-        <v>9.263623812979631</v>
+        <v>1.033023627766212</v>
       </c>
       <c r="G18">
-        <v>0.0007792574722335715</v>
+        <v>0.930442201669905</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005630625697370384</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5785438439445301</v>
       </c>
       <c r="K18">
-        <v>1.673168937342979</v>
+        <v>0.5407532736811476</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.750729581250283</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.550686336329306</v>
+        <v>1.379026920827329</v>
       </c>
       <c r="C19">
-        <v>0.2378037675682236</v>
+        <v>0.4142211573175985</v>
       </c>
       <c r="D19">
-        <v>0.5108031312541357</v>
+        <v>0.04771337402524267</v>
       </c>
       <c r="E19">
-        <v>2.025107873437094</v>
+        <v>1.990813237690006</v>
       </c>
       <c r="F19">
-        <v>9.184304099551809</v>
+        <v>1.024874921475757</v>
       </c>
       <c r="G19">
-        <v>0.0007801442967552141</v>
+        <v>0.9227865546340155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005523650814970082</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5754376538654213</v>
       </c>
       <c r="K19">
-        <v>1.655779271451053</v>
+        <v>0.537597584100844</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.735968865164551</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.622802064658089</v>
+        <v>1.43331542554381</v>
       </c>
       <c r="C20">
-        <v>0.2497097493841522</v>
+        <v>0.4314059582665379</v>
       </c>
       <c r="D20">
-        <v>0.5289254841603679</v>
+        <v>0.04846508954039308</v>
       </c>
       <c r="E20">
-        <v>2.122445992970981</v>
+        <v>2.079028085635343</v>
       </c>
       <c r="F20">
-        <v>9.542939881502377</v>
+        <v>1.052964586060483</v>
       </c>
       <c r="G20">
-        <v>0.0007761520189925917</v>
+        <v>0.9477279607302336</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006580033297868937</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5845808185788997</v>
       </c>
       <c r="K20">
-        <v>1.734544867043411</v>
+        <v>0.5451863422261738</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.805080519271485</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.873715223758353</v>
+        <v>1.61729430599226</v>
       </c>
       <c r="C21">
-        <v>0.291577227004197</v>
+        <v>0.4889088287238508</v>
       </c>
       <c r="D21">
-        <v>0.5915173178680959</v>
+        <v>0.05081342525141963</v>
       </c>
       <c r="E21">
-        <v>2.463127828339324</v>
+        <v>2.382180939693455</v>
       </c>
       <c r="F21">
-        <v>10.78103746175066</v>
+        <v>1.152907754549204</v>
       </c>
       <c r="G21">
-        <v>0.0007626824975631162</v>
+        <v>1.037393532686565</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01072369936697282</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6183004783667485</v>
       </c>
       <c r="K21">
-        <v>2.009206706377768</v>
+        <v>0.5741020863049187</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.038052073042991</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.045374376465247</v>
+        <v>1.739559770960739</v>
       </c>
       <c r="C22">
-        <v>0.3206280019124108</v>
+        <v>0.5253256514230031</v>
       </c>
       <c r="D22">
-        <v>0.6339586508003094</v>
+        <v>0.05207352874349169</v>
       </c>
       <c r="E22">
-        <v>2.698221660296269</v>
+        <v>2.586238110490086</v>
       </c>
       <c r="F22">
-        <v>11.61976010139051</v>
+        <v>1.225276005172958</v>
       </c>
       <c r="G22">
-        <v>0.000753796350698414</v>
+        <v>1.103561271366175</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01382543863712993</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6441749105464964</v>
       </c>
       <c r="K22">
-        <v>2.197673890847028</v>
+        <v>0.5976857296528379</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.190302401986429</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.952965557472169</v>
+        <v>1.675528817649592</v>
       </c>
       <c r="C23">
-        <v>0.3049472921077694</v>
+        <v>0.5038212892570186</v>
       </c>
       <c r="D23">
-        <v>0.6111478389227329</v>
+        <v>0.05115113429340568</v>
       </c>
       <c r="E23">
-        <v>2.571445812703288</v>
+        <v>2.476823890622057</v>
       </c>
       <c r="F23">
-        <v>11.16906974423659</v>
+        <v>1.191290394266119</v>
       </c>
       <c r="G23">
-        <v>0.0007585495873713658</v>
+        <v>1.073402636195311</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01186278518347184</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6329818603410899</v>
       </c>
       <c r="K23">
-        <v>2.096159394698674</v>
+        <v>0.5887167261026249</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.107455658812711</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.618812280646722</v>
+        <v>1.432279839446437</v>
       </c>
       <c r="C24">
-        <v>0.2490495922408229</v>
+        <v>0.4274577123683514</v>
       </c>
       <c r="D24">
-        <v>0.5279244934865233</v>
+        <v>0.04804631837217244</v>
       </c>
       <c r="E24">
-        <v>2.117054480022119</v>
+        <v>2.074272487068527</v>
       </c>
       <c r="F24">
-        <v>9.52313188609196</v>
+        <v>1.058765182320812</v>
       </c>
       <c r="G24">
-        <v>0.0007763713718533793</v>
+        <v>0.9544862550649356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.006104425464310559</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5882104766405689</v>
       </c>
       <c r="K24">
-        <v>1.730185156560879</v>
+        <v>0.5503964557234866</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.799089494256549</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.28373366740388</v>
+        <v>1.172072694609852</v>
       </c>
       <c r="C25">
-        <v>0.1942062099907957</v>
+        <v>0.3481895587478903</v>
       </c>
       <c r="D25">
-        <v>0.4431343010859905</v>
+        <v>0.04464454727946432</v>
       </c>
       <c r="E25">
-        <v>1.666677949286878</v>
+        <v>1.659980139338032</v>
       </c>
       <c r="F25">
-        <v>7.845094480675783</v>
+        <v>0.9232493015585703</v>
       </c>
       <c r="G25">
-        <v>0.0007954885237948279</v>
+        <v>0.8335391610456639</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002284779006502369</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.543724440495339</v>
       </c>
       <c r="K25">
-        <v>1.364871185423112</v>
+        <v>0.5122132241164579</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.471474362161928</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9845971067980201</v>
+        <v>0.9616676268239814</v>
       </c>
       <c r="C2">
-        <v>0.2871187986189057</v>
+        <v>0.3266768904402397</v>
       </c>
       <c r="D2">
-        <v>0.04152751061760895</v>
+        <v>0.04698546227554345</v>
       </c>
       <c r="E2">
-        <v>1.367278221857973</v>
+        <v>1.368021881359567</v>
       </c>
       <c r="F2">
-        <v>0.8401929723001444</v>
+        <v>0.723739572549654</v>
       </c>
       <c r="G2">
-        <v>0.7623431400457719</v>
+        <v>0.613532961255828</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005164940060931045</v>
+        <v>0.0007247144893893775</v>
       </c>
       <c r="J2">
-        <v>0.5202444297980833</v>
+        <v>0.4911744678975509</v>
       </c>
       <c r="K2">
-        <v>0.4952710893771837</v>
+        <v>0.4008898739899358</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2023823802321267</v>
       </c>
       <c r="M2">
-        <v>1.229746221579944</v>
+        <v>0.1085054657467666</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.266198372785624</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8561343521048173</v>
+        <v>0.8393845234298567</v>
       </c>
       <c r="C3">
-        <v>0.2493658669940828</v>
+        <v>0.2802604496228724</v>
       </c>
       <c r="D3">
-        <v>0.03972487614743869</v>
+        <v>0.04364577401117842</v>
       </c>
       <c r="E3">
-        <v>1.174364359840325</v>
+        <v>1.175752514883243</v>
       </c>
       <c r="F3">
-        <v>0.7797316313128917</v>
+        <v>0.6798945491957014</v>
       </c>
       <c r="G3">
-        <v>0.7091020757906676</v>
+        <v>0.579682495672273</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005239295459222859</v>
+        <v>0.0005109506263312191</v>
       </c>
       <c r="J3">
-        <v>0.5019265426990103</v>
+        <v>0.4774326734164447</v>
       </c>
       <c r="K3">
-        <v>0.4797206153741911</v>
+        <v>0.3961862095755215</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2058181477899339</v>
       </c>
       <c r="M3">
-        <v>1.069167253010164</v>
+        <v>0.102219624637538</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100483551259288</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.777281790723265</v>
+        <v>0.7641582549020995</v>
       </c>
       <c r="C4">
-        <v>0.2266291091741266</v>
+        <v>0.2523534729984362</v>
       </c>
       <c r="D4">
-        <v>0.03861537577539664</v>
+        <v>0.04161359977058865</v>
       </c>
       <c r="E4">
-        <v>1.058043724241955</v>
+        <v>1.059707278114786</v>
       </c>
       <c r="F4">
-        <v>0.7434973850375215</v>
+        <v>0.6535656774021916</v>
       </c>
       <c r="G4">
-        <v>0.6772314269075252</v>
+        <v>0.5596573814515153</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0009232924376090246</v>
+        <v>0.0006805204219046956</v>
       </c>
       <c r="J4">
-        <v>0.4911759358469965</v>
+        <v>0.469069836067959</v>
       </c>
       <c r="K4">
-        <v>0.4704977337855212</v>
+        <v>0.3934532716708929</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2078542160880055</v>
       </c>
       <c r="M4">
-        <v>0.9710691524688002</v>
+        <v>0.0990841044827917</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9991634572222949</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.744837136698635</v>
+        <v>0.7331792337053571</v>
       </c>
       <c r="C5">
-        <v>0.2179386135833852</v>
+        <v>0.2416011892282626</v>
       </c>
       <c r="D5">
-        <v>0.03821881709226815</v>
+        <v>0.04085387427474174</v>
       </c>
       <c r="E5">
-        <v>1.011086940468786</v>
+        <v>1.012838598613172</v>
       </c>
       <c r="F5">
-        <v>0.7277219172060327</v>
+        <v>0.6419340556963107</v>
       </c>
       <c r="G5">
-        <v>0.6630848384211845</v>
+        <v>0.5505498915133273</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001249452128134543</v>
+        <v>0.0009025902220498594</v>
       </c>
       <c r="J5">
-        <v>0.4862198494439411</v>
+        <v>0.4650787304607178</v>
       </c>
       <c r="K5">
-        <v>0.4658727231766413</v>
+        <v>0.3916186222202853</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2083162806011103</v>
       </c>
       <c r="M5">
-        <v>0.9315493801297805</v>
+        <v>0.0977648618517275</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9582951835383824</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7390752459813541</v>
+        <v>0.7276908947284255</v>
       </c>
       <c r="C6">
-        <v>0.2170859143805757</v>
+        <v>0.2404188427512253</v>
       </c>
       <c r="D6">
-        <v>0.03822223469578745</v>
+        <v>0.04080671334469343</v>
       </c>
       <c r="E6">
-        <v>1.003303022273286</v>
+        <v>1.00506925680898</v>
       </c>
       <c r="F6">
-        <v>0.7236327817266854</v>
+        <v>0.6387458629172187</v>
       </c>
       <c r="G6">
-        <v>0.6591047359848119</v>
+        <v>0.5476826442918394</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001402880976309362</v>
+        <v>0.00105298547196675</v>
       </c>
       <c r="J6">
-        <v>0.4845597930326022</v>
+        <v>0.4636860712467694</v>
       </c>
       <c r="K6">
-        <v>0.4639606307644897</v>
+        <v>0.3903950635238438</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2079670691806079</v>
       </c>
       <c r="M6">
-        <v>0.9254273548762626</v>
+        <v>0.09728816275069718</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9519213917428715</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7758185778995141</v>
+        <v>0.7630200123277291</v>
       </c>
       <c r="C7">
-        <v>0.2281118910183011</v>
+        <v>0.253347588997201</v>
       </c>
       <c r="D7">
-        <v>0.03880043966327662</v>
+        <v>0.0419547690459332</v>
       </c>
       <c r="E7">
-        <v>1.057374186565426</v>
+        <v>1.059019873583992</v>
       </c>
       <c r="F7">
-        <v>0.7392334664399698</v>
+        <v>0.6479120209529157</v>
       </c>
       <c r="G7">
-        <v>0.6725503977985312</v>
+        <v>0.5585045714095287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001165988700208231</v>
+        <v>0.0009639108477328406</v>
       </c>
       <c r="J7">
-        <v>0.4888035857606639</v>
+        <v>0.4606882069731881</v>
       </c>
       <c r="K7">
-        <v>0.4672959538962402</v>
+        <v>0.3897979255070112</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2062188246225318</v>
       </c>
       <c r="M7">
-        <v>0.9717255313940996</v>
+        <v>0.09797432645070003</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9993308296515693</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9389121628363171</v>
+        <v>0.9189959534425896</v>
       </c>
       <c r="C8">
-        <v>0.2761385403550207</v>
+        <v>0.3110667385104477</v>
       </c>
       <c r="D8">
-        <v>0.04116467570053928</v>
+        <v>0.0465913543771137</v>
       </c>
       <c r="E8">
-        <v>1.300214491913962</v>
+        <v>1.301126336391633</v>
       </c>
       <c r="F8">
-        <v>0.8137745724448848</v>
+        <v>0.6971853446245859</v>
       </c>
       <c r="G8">
-        <v>0.7378461029061469</v>
+        <v>0.6058281506620347</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0007090386097514667</v>
+        <v>0.0009118219482155965</v>
       </c>
       <c r="J8">
-        <v>0.510771923090843</v>
+        <v>0.4630785528318739</v>
       </c>
       <c r="K8">
-        <v>0.4856825179664241</v>
+        <v>0.3922943733537245</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.200649457765806</v>
       </c>
       <c r="M8">
-        <v>1.175844496594578</v>
+        <v>0.1038920197760156</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.209105913949855</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.26142016163908</v>
+        <v>1.22507333474087</v>
       </c>
       <c r="C9">
-        <v>0.3715917589215678</v>
+        <v>0.4284589576104452</v>
       </c>
       <c r="D9">
-        <v>0.04543147433770045</v>
+        <v>0.05494280695287301</v>
       </c>
       <c r="E9">
-        <v>1.79743345434818</v>
+        <v>1.795745984708844</v>
       </c>
       <c r="F9">
-        <v>0.9753380404421108</v>
+        <v>0.8128658951438439</v>
       </c>
       <c r="G9">
-        <v>0.8815252266427507</v>
+        <v>0.7024653366129456</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002926718383981175</v>
+        <v>0.003013233133384752</v>
       </c>
       <c r="J9">
-        <v>0.5623804111662594</v>
+        <v>0.4945686204216031</v>
       </c>
       <c r="K9">
-        <v>0.5303249654040769</v>
+        <v>0.4071478698026567</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1928399130706744</v>
       </c>
       <c r="M9">
-        <v>1.579121697349137</v>
+        <v>0.1241563062767952</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.62429868542651</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.499288162821983</v>
+        <v>1.45100811369133</v>
       </c>
       <c r="C10">
-        <v>0.4460767070378608</v>
+        <v>0.5168234407864531</v>
       </c>
       <c r="D10">
-        <v>0.04866375480308704</v>
+        <v>0.06221223995864023</v>
       </c>
       <c r="E10">
-        <v>2.181781179730663</v>
+        <v>2.176750048592154</v>
       </c>
       <c r="F10">
-        <v>1.098586139194438</v>
+        <v>0.8889796103939602</v>
       </c>
       <c r="G10">
-        <v>0.991104259607468</v>
+        <v>0.7939000763196162</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007257605741039619</v>
+        <v>0.006602291034014662</v>
       </c>
       <c r="J10">
-        <v>0.6025650035589365</v>
+        <v>0.4825726775036685</v>
       </c>
       <c r="K10">
-        <v>0.5639771589803786</v>
+        <v>0.4119839708107236</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1841917275295266</v>
       </c>
       <c r="M10">
-        <v>1.880988448798774</v>
+        <v>0.1400386231518382</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.931655746132805</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.606265584839747</v>
+        <v>1.554722924158057</v>
       </c>
       <c r="C11">
-        <v>0.4837075526230592</v>
+        <v>0.5555453552060783</v>
       </c>
       <c r="D11">
-        <v>0.05048107444952876</v>
+        <v>0.06764005986268984</v>
       </c>
       <c r="E11">
-        <v>2.362275029568892</v>
+        <v>2.354909757685348</v>
       </c>
       <c r="F11">
-        <v>1.149797208293663</v>
+        <v>0.8988315597606658</v>
       </c>
       <c r="G11">
-        <v>1.035320626385229</v>
+        <v>0.8609320919710797</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01022816135843119</v>
+        <v>0.009070230946022662</v>
       </c>
       <c r="J11">
-        <v>0.6180118551875324</v>
+        <v>0.4184900784346297</v>
       </c>
       <c r="K11">
-        <v>0.5748408331963475</v>
+        <v>0.4000995105818319</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1753313232689777</v>
       </c>
       <c r="M11">
-        <v>2.021838277071708</v>
+        <v>0.1421560631475067</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.070231354663377</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.647821162079282</v>
+        <v>1.59520633941824</v>
       </c>
       <c r="C12">
-        <v>0.49668185571295</v>
+        <v>0.5681992984396231</v>
       </c>
       <c r="D12">
-        <v>0.05098751320753081</v>
+        <v>0.06972143658546059</v>
       </c>
       <c r="E12">
-        <v>2.431666949652126</v>
+        <v>2.423275661227095</v>
       </c>
       <c r="F12">
-        <v>1.173040779402342</v>
+        <v>0.9030887016650269</v>
       </c>
       <c r="G12">
-        <v>1.056287914978</v>
+        <v>0.8940516070590689</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01129280484026829</v>
+        <v>0.009855514414459421</v>
       </c>
       <c r="J12">
-        <v>0.6260064530941918</v>
+        <v>0.3909071601136986</v>
       </c>
       <c r="K12">
-        <v>0.5817866061099934</v>
+        <v>0.3963889820816959</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1723062088978509</v>
       </c>
       <c r="M12">
-        <v>2.074384276296655</v>
+        <v>0.1433103317801567</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.121357578726645</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.639057574941575</v>
+        <v>1.586642320005183</v>
       </c>
       <c r="C13">
-        <v>0.4935875399802399</v>
+        <v>0.5651972312052465</v>
       </c>
       <c r="D13">
-        <v>0.05084138105482339</v>
+        <v>0.06921479930880281</v>
       </c>
       <c r="E13">
-        <v>2.416688225160911</v>
+        <v>2.408522121715478</v>
       </c>
       <c r="F13">
-        <v>1.168735418548096</v>
+        <v>0.9028487355567592</v>
       </c>
       <c r="G13">
-        <v>1.052549393121041</v>
+        <v>0.8873703208620327</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01102217993936794</v>
+        <v>0.009636725059700701</v>
       </c>
       <c r="J13">
-        <v>0.6246789752236594</v>
+        <v>0.3972787895287695</v>
       </c>
       <c r="K13">
-        <v>0.5808322006432647</v>
+        <v>0.3976353653116718</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1731084470924813</v>
       </c>
       <c r="M13">
-        <v>2.062842786020212</v>
+        <v>0.1432447171754596</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.110162004556912</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.609763232581031</v>
+        <v>1.558118825305371</v>
       </c>
       <c r="C14">
-        <v>0.4846473700891067</v>
+        <v>0.5564692022809936</v>
       </c>
       <c r="D14">
-        <v>0.05050701525050982</v>
+        <v>0.06778648426632117</v>
       </c>
       <c r="E14">
-        <v>2.367968469264142</v>
+        <v>2.36052073773547</v>
       </c>
       <c r="F14">
-        <v>1.152006593769343</v>
+        <v>0.8994732019090179</v>
       </c>
       <c r="G14">
-        <v>1.037375261987791</v>
+        <v>0.863842481129609</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0102976940037367</v>
+        <v>0.009113261261943784</v>
       </c>
       <c r="J14">
-        <v>0.6188368690312274</v>
+        <v>0.4164171314670142</v>
       </c>
       <c r="K14">
-        <v>0.5756420571206462</v>
+        <v>0.3999869757865184</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1751478502641248</v>
       </c>
       <c r="M14">
-        <v>2.026065526090406</v>
+        <v>0.1423293311660565</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.074359502133802</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.591458680738839</v>
+        <v>1.540358764239699</v>
       </c>
       <c r="C15">
-        <v>0.4797690275006232</v>
+        <v>0.5516479024073533</v>
       </c>
       <c r="D15">
-        <v>0.05037507439553934</v>
+        <v>0.06703509558456489</v>
       </c>
       <c r="E15">
-        <v>2.338235720172094</v>
+        <v>2.33121380242126</v>
       </c>
       <c r="F15">
-        <v>1.140395030571071</v>
+        <v>0.8959614660938229</v>
       </c>
       <c r="G15">
-        <v>1.026565240811678</v>
+        <v>0.8487496572093818</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.009944937055786696</v>
+        <v>0.008898756488739501</v>
       </c>
       <c r="J15">
-        <v>0.6144891121780489</v>
+        <v>0.4270374915216166</v>
       </c>
       <c r="K15">
-        <v>0.5714031303310207</v>
+        <v>0.4004830895384757</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1760760515224646</v>
       </c>
       <c r="M15">
-        <v>2.003992205754685</v>
+        <v>0.1413883561865816</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.052778005567035</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.489164472930469</v>
+        <v>1.441446157526514</v>
       </c>
       <c r="C16">
-        <v>0.4484640185236799</v>
+        <v>0.5192157385958467</v>
       </c>
       <c r="D16">
-        <v>0.04915239041075381</v>
+        <v>0.06262325640981459</v>
       </c>
       <c r="E16">
-        <v>2.169925113442076</v>
+        <v>2.165057960201935</v>
       </c>
       <c r="F16">
-        <v>1.083435155346336</v>
+        <v>0.8783293470732332</v>
       </c>
       <c r="G16">
-        <v>0.9751415412002018</v>
+        <v>0.7793638556072295</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.007676730784709207</v>
+        <v>0.007208780920834101</v>
       </c>
       <c r="J16">
-        <v>0.5949149706299437</v>
+        <v>0.4809155887261198</v>
       </c>
       <c r="K16">
-        <v>0.5542060307749068</v>
+        <v>0.4058303178983707</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1823156012496767</v>
       </c>
       <c r="M16">
-        <v>1.875337965967759</v>
+        <v>0.1371390788742133</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.925874416605723</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.42658548099476</v>
+        <v>1.381363720054821</v>
       </c>
       <c r="C17">
-        <v>0.4295125801214681</v>
+        <v>0.4984114789913576</v>
       </c>
       <c r="D17">
-        <v>0.04839932190899532</v>
+        <v>0.06030206347708145</v>
       </c>
       <c r="E17">
-        <v>2.06825743200821</v>
+        <v>2.064497608818684</v>
       </c>
       <c r="F17">
-        <v>1.049043025226723</v>
+        <v>0.8634362399026259</v>
       </c>
       <c r="G17">
-        <v>0.944136844550826</v>
+        <v>0.7440813485415276</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.006476954764701226</v>
+        <v>0.006295228371330452</v>
       </c>
       <c r="J17">
-        <v>0.5831844815440803</v>
+        <v>0.5032248137918032</v>
       </c>
       <c r="K17">
-        <v>0.5438809350955864</v>
+        <v>0.4069534229855734</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.185414279034795</v>
       </c>
       <c r="M17">
-        <v>1.796820390630899</v>
+        <v>0.133786640695515</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.847390142981993</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.391594786515668</v>
+        <v>1.347860927100214</v>
       </c>
       <c r="C18">
-        <v>0.4172360426337889</v>
+        <v>0.4846075616192138</v>
       </c>
       <c r="D18">
-        <v>0.04778099120395751</v>
+        <v>0.05887863973525498</v>
       </c>
       <c r="E18">
-        <v>2.010367493587054</v>
+        <v>2.0071655853138</v>
       </c>
       <c r="F18">
-        <v>1.033023627766212</v>
+        <v>0.8563733262158593</v>
       </c>
       <c r="G18">
-        <v>0.930442201669905</v>
+        <v>0.7294432471993986</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005630625697370384</v>
+        <v>0.00553571316403545</v>
       </c>
       <c r="J18">
-        <v>0.5785438439445301</v>
+        <v>0.5133283277730953</v>
       </c>
       <c r="K18">
-        <v>0.5407532736811476</v>
+        <v>0.4088938864591043</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.18767507545925</v>
       </c>
       <c r="M18">
-        <v>1.750729581250283</v>
+        <v>0.1324115907608352</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.801015258012285</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.379026920827329</v>
+        <v>1.33589307434562</v>
       </c>
       <c r="C19">
-        <v>0.4142211573175985</v>
+        <v>0.4810495335559892</v>
       </c>
       <c r="D19">
-        <v>0.04771337402524267</v>
+        <v>0.05858531203609374</v>
       </c>
       <c r="E19">
-        <v>1.990813237690006</v>
+        <v>1.987794829680482</v>
       </c>
       <c r="F19">
-        <v>1.024874921475757</v>
+        <v>0.8514594900548786</v>
       </c>
       <c r="G19">
-        <v>0.9227865546340155</v>
+        <v>0.7224162826209124</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005523650814970082</v>
+        <v>0.005496156682371023</v>
       </c>
       <c r="J19">
-        <v>0.5754376538654213</v>
+        <v>0.5147211497372552</v>
       </c>
       <c r="K19">
-        <v>0.537597584100844</v>
+        <v>0.407821291144181</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1878105352144921</v>
       </c>
       <c r="M19">
-        <v>1.735968865164551</v>
+        <v>0.1312811691072611</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.786052170827759</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.43331542554381</v>
+        <v>1.387805263671879</v>
       </c>
       <c r="C20">
-        <v>0.4314059582665379</v>
+        <v>0.5005405630577968</v>
       </c>
       <c r="D20">
-        <v>0.04846508954039308</v>
+        <v>0.0605183285112787</v>
       </c>
       <c r="E20">
-        <v>2.079028085635343</v>
+        <v>2.075157291680028</v>
       </c>
       <c r="F20">
-        <v>1.052964586060483</v>
+        <v>0.8654040561421823</v>
       </c>
       <c r="G20">
-        <v>0.9477279607302336</v>
+        <v>0.7478308637559081</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.006580033297868937</v>
+        <v>0.006365852973713615</v>
       </c>
       <c r="J20">
-        <v>0.5845808185788997</v>
+        <v>0.5014205258768385</v>
       </c>
       <c r="K20">
-        <v>0.5451863422261738</v>
+        <v>0.4070763733681275</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1851712391495397</v>
       </c>
       <c r="M20">
-        <v>1.805080519271485</v>
+        <v>0.1342338386712001</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.855689416070248</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.61729430599226</v>
+        <v>1.566346643737859</v>
       </c>
       <c r="C21">
-        <v>0.4889088287238508</v>
+        <v>0.558808131331034</v>
       </c>
       <c r="D21">
-        <v>0.05081342525141963</v>
+        <v>0.06905428893072241</v>
       </c>
       <c r="E21">
-        <v>2.382180939693455</v>
+        <v>2.374394357808612</v>
       </c>
       <c r="F21">
-        <v>1.152907754549204</v>
+        <v>0.8900889003620023</v>
       </c>
       <c r="G21">
-        <v>1.037393532686565</v>
+        <v>0.8775893261812939</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01072369936697282</v>
+        <v>0.009515352104818575</v>
       </c>
       <c r="J21">
-        <v>0.6183004783667485</v>
+        <v>0.3910020017513887</v>
       </c>
       <c r="K21">
-        <v>0.5741020863049187</v>
+        <v>0.3933757202155732</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1725131306386487</v>
       </c>
       <c r="M21">
-        <v>2.038052073042991</v>
+        <v>0.1401643030865642</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.084467185108281</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.739559770960739</v>
+        <v>1.685074428835748</v>
       </c>
       <c r="C22">
-        <v>0.5253256514230031</v>
+        <v>0.5948616474676669</v>
       </c>
       <c r="D22">
-        <v>0.05207352874349169</v>
+        <v>0.07475925678342321</v>
       </c>
       <c r="E22">
-        <v>2.586238110490086</v>
+        <v>2.575328403967191</v>
       </c>
       <c r="F22">
-        <v>1.225276005172958</v>
+        <v>0.9085345563007792</v>
       </c>
       <c r="G22">
-        <v>1.103561271366175</v>
+        <v>0.9764196624677055</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01382543863712993</v>
+        <v>0.01168450686363531</v>
       </c>
       <c r="J22">
-        <v>0.6441749105464964</v>
+        <v>0.3247993233363218</v>
       </c>
       <c r="K22">
-        <v>0.5976857296528379</v>
+        <v>0.386308717455023</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1651050122945819</v>
       </c>
       <c r="M22">
-        <v>2.190302401986429</v>
+        <v>0.1451070673627619</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.233002863618566</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.675528817649592</v>
+        <v>1.622211632122259</v>
       </c>
       <c r="C23">
-        <v>0.5038212892570186</v>
+        <v>0.5749062848144035</v>
       </c>
       <c r="D23">
-        <v>0.05115113429340568</v>
+        <v>0.07093110001935798</v>
       </c>
       <c r="E23">
-        <v>2.476823890622057</v>
+        <v>2.467721437440588</v>
       </c>
       <c r="F23">
-        <v>1.191290394266119</v>
+        <v>0.90767048667783</v>
       </c>
       <c r="G23">
-        <v>1.073402636195311</v>
+        <v>0.9197467521405684</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01186278518347184</v>
+        <v>0.01018852108225587</v>
       </c>
       <c r="J23">
-        <v>0.6329818603410899</v>
+        <v>0.3731673029932381</v>
       </c>
       <c r="K23">
-        <v>0.5887167261026249</v>
+        <v>0.3953661730038078</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.170832250484672</v>
       </c>
       <c r="M23">
-        <v>2.107455658812711</v>
+        <v>0.1446373655217066</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.153388296433917</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.432279839446437</v>
+        <v>1.386700470553478</v>
       </c>
       <c r="C24">
-        <v>0.4274577123683514</v>
+        <v>0.4963731758240044</v>
       </c>
       <c r="D24">
-        <v>0.04804631837217244</v>
+        <v>0.059957562693711</v>
       </c>
       <c r="E24">
-        <v>2.074272487068527</v>
+        <v>2.070434831351534</v>
       </c>
       <c r="F24">
-        <v>1.058765182320812</v>
+        <v>0.8707594662965334</v>
       </c>
       <c r="G24">
-        <v>0.9544862550649356</v>
+        <v>0.7529432211646281</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006104425464310559</v>
+        <v>0.005795981413775131</v>
       </c>
       <c r="J24">
-        <v>0.5882104766405689</v>
+        <v>0.505641456618477</v>
       </c>
       <c r="K24">
-        <v>0.5503964557234866</v>
+        <v>0.4113956431009527</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1868604545369656</v>
       </c>
       <c r="M24">
-        <v>1.799089494256549</v>
+        <v>0.1357518018575448</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.849807533177653</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.172072694609852</v>
+        <v>1.140232537310482</v>
       </c>
       <c r="C25">
-        <v>0.3481895587478903</v>
+        <v>0.39981490782219</v>
       </c>
       <c r="D25">
-        <v>0.04464454727946432</v>
+        <v>0.05288831300917707</v>
       </c>
       <c r="E25">
-        <v>1.659980139338032</v>
+        <v>1.659228505756289</v>
       </c>
       <c r="F25">
-        <v>0.9232493015585703</v>
+        <v>0.7776272623734712</v>
       </c>
       <c r="G25">
-        <v>0.8335391610456639</v>
+        <v>0.6648394337885293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002284779006502369</v>
+        <v>0.002596487965322858</v>
       </c>
       <c r="J25">
-        <v>0.543724440495339</v>
+        <v>0.4913199789618545</v>
       </c>
       <c r="K25">
-        <v>0.5122132241164579</v>
+        <v>0.4001335114289475</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1939241852444731</v>
       </c>
       <c r="M25">
-        <v>1.471474362161928</v>
+        <v>0.1169812298978137</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.513999270187185</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
